--- a/zurmo/src/test/java/projekt/automatyzacja/testdata/createOpportunity.xlsx
+++ b/zurmo/src/test/java/projekt/automatyzacja/testdata/createOpportunity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>polite return</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>świetna okazja</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Kamil Czaja</t>
   </si>
 </sst>
 </file>
@@ -843,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -854,9 +860,10 @@
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
@@ -867,22 +874,25 @@
         <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -893,21 +903,24 @@
         <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1"/>
-    <row r="4" spans="1:8" s="1" customFormat="1"/>
-    <row r="5" spans="1:8" s="1" customFormat="1"/>
+    <row r="3" spans="1:9" s="1" customFormat="1"/>
+    <row r="4" spans="1:9" s="1" customFormat="1"/>
+    <row r="5" spans="1:9" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
